--- a/src/results/featureenvy/tca.xlsx
+++ b/src/results/featureenvy/tca.xlsx
@@ -52,10 +52,10 @@
     <t>aoi</t>
   </si>
   <si>
-    <t>Mean</t>
-  </si>
-  <si>
-    <t>Std</t>
+    <t>Median</t>
+  </si>
+  <si>
+    <t>IQR</t>
   </si>
 </sst>
 </file>
@@ -461,22 +461,22 @@
         <v>6</v>
       </c>
       <c r="B2" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>81</v>
       </c>
       <c r="D2" t="n">
         <v>79</v>
       </c>
       <c r="E2" t="n">
-        <v>92</v>
+        <v>75</v>
       </c>
       <c r="F2" t="n">
         <v>81</v>
       </c>
       <c r="G2" t="n">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -497,15 +497,15 @@
         <v>82</v>
       </c>
       <c r="N2" t="n">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="O2" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:15">
       <c r="A3" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B3" t="n">
         <v>0</v>
@@ -538,16 +538,16 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>62</v>
+        <v>76</v>
       </c>
       <c r="N3" t="n">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="O3" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -555,25 +555,25 @@
         <v>7</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="C4" t="n">
         <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>50</v>
+        <v>79</v>
       </c>
       <c r="E4" t="n">
-        <v>65</v>
+        <v>92</v>
       </c>
       <c r="F4" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="G4" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="H4" t="n">
-        <v>100</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -591,109 +591,109 @@
         <v>31</v>
       </c>
       <c r="N4" t="n">
-        <v>60</v>
+        <v>66</v>
       </c>
       <c r="O4" t="n">
-        <v>22</v>
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5" t="n">
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="D5" t="n">
         <v>79</v>
       </c>
       <c r="E5" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>81</v>
       </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
       <c r="H5" t="n">
-        <v>86</v>
+        <v>100</v>
       </c>
       <c r="I5" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="J5" t="n">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="L5" t="n">
-        <v>57</v>
+        <v>81</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="N5" t="n">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="O5" t="n">
-        <v>26</v>
+        <v>54</v>
       </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="B6" t="n">
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D6" t="n">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="F6" t="n">
-        <v>70</v>
+        <v>91</v>
       </c>
       <c r="G6" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="H6" t="n">
         <v>100</v>
       </c>
       <c r="I6" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>61</v>
+        <v>0</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>52</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
-        <v>0</v>
+        <v>82</v>
       </c>
       <c r="N6" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O6" t="n">
-        <v>30</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="B7" t="n">
         <v>0</v>
@@ -726,13 +726,13 @@
         <v>0</v>
       </c>
       <c r="L7" t="n">
-        <v>81</v>
+        <v>57</v>
       </c>
       <c r="M7" t="n">
-        <v>82</v>
+        <v>62</v>
       </c>
       <c r="N7" t="n">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="O7" t="n">
         <v>30</v>
@@ -740,154 +740,154 @@
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="B8" t="n">
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>48</v>
       </c>
       <c r="D8" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
         <v>70</v>
       </c>
-      <c r="E8" t="n">
-        <v>37</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
       <c r="G8" t="n">
-        <v>91</v>
+        <v>81</v>
       </c>
       <c r="H8" t="n">
         <v>100</v>
       </c>
       <c r="I8" t="n">
-        <v>51</v>
+        <v>75</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>61</v>
       </c>
       <c r="K8" t="n">
-        <v>75</v>
+        <v>0</v>
       </c>
       <c r="L8" t="n">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="M8" t="n">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
-        <v>46</v>
+        <v>52</v>
       </c>
       <c r="O8" t="n">
-        <v>31</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="B9" t="n">
         <v>0</v>
       </c>
       <c r="C9" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E9" t="n">
-        <v>57</v>
+        <v>37</v>
       </c>
       <c r="F9" t="n">
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>81</v>
+        <v>91</v>
       </c>
       <c r="H9" t="n">
         <v>100</v>
       </c>
       <c r="I9" t="n">
-        <v>70</v>
+        <v>51</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>53</v>
+        <v>75</v>
       </c>
       <c r="L9" t="n">
-        <v>81</v>
+        <v>40</v>
       </c>
       <c r="M9" t="n">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="N9" t="n">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="O9" t="n">
-        <v>33</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1" t="s">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="B10" t="n">
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="D10" t="n">
-        <v>70</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F10" t="n">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="I10" t="n">
-        <v>29</v>
+        <v>65</v>
       </c>
       <c r="J10" t="n">
-        <v>68</v>
+        <v>35</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="L10" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="M10" t="n">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="O10" t="n">
-        <v>35</v>
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B11" t="n">
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -917,18 +917,18 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>14</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1" t="s">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="B12" t="n">
         <v>0</v>
@@ -955,7 +955,7 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="M12" t="n">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
@@ -981,16 +981,16 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>84</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>70</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="K13" t="n">
         <v>0</v>
@@ -1017,7 +1017,7 @@
         <v>0</v>
       </c>
       <c r="O13" t="n">
-        <v>0</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
